--- a/LOCKER/locker-registration-data.xlsx
+++ b/LOCKER/locker-registration-data.xlsx
@@ -283,9 +283,6 @@
     <t>青衣邨</t>
   </si>
   <si>
-    <t>巴士站對面，管理處附近</t>
-  </si>
-  <si>
     <t>Joey</t>
   </si>
   <si>
@@ -644,9 +641,6 @@
     <t>2樓</t>
   </si>
   <si>
-    <t>232舖，7-11便利店</t>
-  </si>
-  <si>
     <t>北角</t>
   </si>
   <si>
@@ -656,9 +650,6 @@
     <t>七姊妹道</t>
   </si>
   <si>
-    <t>A舖，7-11便利店</t>
-  </si>
-  <si>
     <t>Tsat Tsz Mui Road</t>
   </si>
   <si>
@@ -680,21 +671,12 @@
     <t>1樓</t>
   </si>
   <si>
-    <t>134至135號舖，7-11便利店</t>
-  </si>
-  <si>
     <t>天平路</t>
   </si>
   <si>
-    <t>116號舖，7-11便利店</t>
-  </si>
-  <si>
     <t>青衣</t>
   </si>
   <si>
-    <t>第3-4&amp;17-20號舖，7-11便利店</t>
-  </si>
-  <si>
     <t>土瓜灣</t>
   </si>
   <si>
@@ -728,9 +710,6 @@
     <t>馬鞍山</t>
   </si>
   <si>
-    <t>201-202舖，7-11便利店</t>
-  </si>
-  <si>
     <t>Ma On Shan</t>
   </si>
   <si>
@@ -758,9 +737,6 @@
     <t>187-195號</t>
   </si>
   <si>
-    <t>7號舖，7-11便利店</t>
-  </si>
-  <si>
     <t>佐敦</t>
   </si>
   <si>
@@ -794,12 +770,6 @@
     <t>Shun Tak Centre G01</t>
   </si>
   <si>
-    <t>Ma On Shan Plaza, Bayshore Towers</t>
-  </si>
-  <si>
-    <t>Central Block, Mayfair Gardens</t>
-  </si>
-  <si>
     <t>Tin Ping Estate Shopping Centre</t>
   </si>
   <si>
@@ -989,27 +959,6 @@
     <t>紅磡</t>
   </si>
   <si>
-    <t>7-Eleven, Shop 201-202</t>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 7</t>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 3-4 &amp; 17-20</t>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 116</t>
-  </si>
-  <si>
-    <t>7-Eleven, Shop A</t>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 232</t>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 134-135</t>
-  </si>
-  <si>
     <t>next to 8way dumpling restaurant</t>
   </si>
   <si>
@@ -1438,9 +1387,6 @@
     <t>寶華樓</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 號部份 D 及 E 舖，7-11便利店</t>
-  </si>
-  <si>
     <t>恒富大廈</t>
   </si>
   <si>
@@ -1468,12 +1414,6 @@
     <t>毓華樓</t>
   </si>
   <si>
-    <t>D 舖，7-11便利店</t>
-  </si>
-  <si>
-    <t>G09 及 G10號舖位 ，7-11便利店</t>
-  </si>
-  <si>
     <t>711-0742</t>
   </si>
   <si>
@@ -1495,18 +1435,6 @@
     <t xml:space="preserve">豉油街 </t>
   </si>
   <si>
-    <t>A 舖位，7-11便利店</t>
-  </si>
-  <si>
-    <t>16 號舖，7-11便利店</t>
-  </si>
-  <si>
-    <t>12 及 13 號舖位，7-11便利店</t>
-  </si>
-  <si>
-    <t>C 號舖位，7-11便利店</t>
-  </si>
-  <si>
     <t>Winnie</t>
   </si>
   <si>
@@ -1763,10 +1691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kwai Sing Centre, Block B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>412-416</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1807,46 +1731,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B2A-B2B，7-11便利店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7-Eleven</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7-Eleven, Shop A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, B2A-B2B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, Shop D &amp; E, No.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, Shop 12 &amp; 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, Shop C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, Shop G09 &amp; G10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-Eleven, Shop D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>業運工業大廈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1875,10 +1763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Concord Building, Shopping Arcade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60- 104B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1918,10 +1802,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kam Tai Court, Shopping Arcade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1958,10 +1838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Whampoa Estate, Whampoa Estate Shopping Arcade - Block F &amp; G </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-32A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2269,9 +2145,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>Tin Chak Shopping Centre, Tin Chak Estate</t>
   </si>
   <si>
     <t>Lift大堂</t>
@@ -2285,14 +2158,6 @@
     <t>商場1樓</t>
   </si>
   <si>
-    <t>平台, 順豐側</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台, 汽水機側</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lift大堂</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2309,10 +2174,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10座, 會所旁</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>商場B2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2321,10 +2182,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">商場G/F 日本城旁 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>商場1樓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2361,18 +2218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Block 4, Podium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next to vending machine, Podium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next to EF-Express, Podium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kowloon City Ferry Pier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2386,14 +2231,6 @@
   </si>
   <si>
     <t>Next to Yuen Long Sushi Restaurant in underground centre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Block 8, Next to Gate </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block 10, Next to Club House</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2401,19 +2238,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Shopping centre on Tak Tin Plaza 1/F, Next to the Lift in Car Park</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shopping Centre 1/F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shopping Centre B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shopping Centre G/F, Next to Janpan City</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2424,10 +2253,6 @@
     <t>往車場中央樓梯旁
 （第7座對出、大快活側）</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next to the central stairs to Car Park, Opposite Block 7, Next to Fairwood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shopping Centre 2/F</t>
@@ -2594,7 +2419,157 @@
     <t>17/F</t>
   </si>
   <si>
-    <t>Yat Tung (2) Estate, Yat Tung Shopping Centre 2</t>
+    <t>Next to EF-Express Podium</t>
+  </si>
+  <si>
+    <t>Shopping centre on Tak Tin Plaza 1/F Next to the Lift in Car Park</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop G09 &amp; G10</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop D</t>
+  </si>
+  <si>
+    <t>7-ElevenShop 201-202</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop 7</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop 3-4 &amp; 17-20</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop 116</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop A</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop 232</t>
+  </si>
+  <si>
+    <t>7-Eleven Shop 134-135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 8 Next to Gate </t>
+  </si>
+  <si>
+    <t>Next to vending machine Podium</t>
+  </si>
+  <si>
+    <t>平台 順豐側</t>
+  </si>
+  <si>
+    <t>平台 汽水機側</t>
+  </si>
+  <si>
+    <t>10座 會所旁</t>
+  </si>
+  <si>
+    <t>A 舖位 7-11便利店</t>
+  </si>
+  <si>
+    <t>16 號舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>B2A-B2B 7-11便利店</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 號部份 D 及 E 舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>12 及 13 號舖位 7-11便利店</t>
+  </si>
+  <si>
+    <t>C 號舖位 7-11便利店</t>
+  </si>
+  <si>
+    <t>巴士站對面 管理處附近</t>
+  </si>
+  <si>
+    <t>Block 4  Podium</t>
+  </si>
+  <si>
+    <t>Block 10  Next to Club House</t>
+  </si>
+  <si>
+    <t>Kwai Sing Centre  Block B</t>
+  </si>
+  <si>
+    <t>7-Eleven  Shop A</t>
+  </si>
+  <si>
+    <t>7-Eleven  Shop 16</t>
+  </si>
+  <si>
+    <t>Concord Building  Shopping Arcade</t>
+  </si>
+  <si>
+    <t>Kam Tai Court  Shopping Arcade</t>
+  </si>
+  <si>
+    <t>7-Eleven  B2A-B2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whampoa Estate  Whampoa Estate Shopping Arcade - Block F &amp; G </t>
+  </si>
+  <si>
+    <t>7-Eleven  Shop D &amp; E  No.1</t>
+  </si>
+  <si>
+    <t>7-Eleven  Shop 12 &amp; 13</t>
+  </si>
+  <si>
+    <t>7-Eleven  Shop C</t>
+  </si>
+  <si>
+    <t>G09 及 G10號舖位  7-11便利店</t>
+  </si>
+  <si>
+    <t>D 舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>201-202舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>Ma On Shan Plaza  Bayshore Towers</t>
+  </si>
+  <si>
+    <t>7號舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>第3-4&amp;17-20號舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>Central Block  Mayfair Gardens</t>
+  </si>
+  <si>
+    <t>116號舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>A舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>232舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>134至135號舖 7-11便利店</t>
+  </si>
+  <si>
+    <t>Yat Tung (2) Estate  Yat Tung Shopping Centre 2</t>
+  </si>
+  <si>
+    <t>商場G/F 日本城旁</t>
+  </si>
+  <si>
+    <t>Tin Chak Shopping Centre Tin Chak Estate</t>
+  </si>
+  <si>
+    <t>Next to the central stairs to Car Park Opposite Block 7 Next to Fairwood</t>
+  </si>
+  <si>
+    <t>Shopping Centre G/F Next to Janpan City</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2577,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -3131,13 +3106,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3531,10 +3506,10 @@
   <dimension ref="A1:AA79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
@@ -3573,79 +3548,79 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>753</v>
+        <v>703</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>734</v>
+        <v>684</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="O1" s="49" t="s">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>745</v>
+        <v>695</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
       <c r="Z1" s="9" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -3653,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>724</v>
+        <v>674</v>
       </c>
       <c r="C2" s="86">
         <v>42370</v>
@@ -3670,7 +3645,7 @@
       <c r="K2" s="54"/>
       <c r="L2" s="81"/>
       <c r="M2" s="79" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="N2" s="55"/>
       <c r="O2" s="62"/>
@@ -3681,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="T2" s="57" t="s">
-        <v>724</v>
+        <v>674</v>
       </c>
       <c r="U2" s="58"/>
       <c r="V2" s="74">
@@ -3694,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z2" s="78">
         <v>85236672668</v>
@@ -3706,48 +3681,48 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="C3" s="86">
         <v>42370</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="37" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M3" s="42"/>
       <c r="N3" s="48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O3" s="63">
         <v>10</v>
       </c>
       <c r="P3" s="65" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Q3" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R3" s="67" t="s">
         <v>13</v>
@@ -3756,7 +3731,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="U3" s="69"/>
       <c r="V3" s="75">
@@ -3769,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="Y3" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z3" s="78">
         <v>85236672668</v>
@@ -3782,48 +3757,48 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="C4" s="86">
         <v>42370</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="37" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="L4" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M4" s="42"/>
       <c r="N4" s="48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O4" s="63">
         <v>10</v>
       </c>
       <c r="P4" s="65" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R4" s="67" t="s">
         <v>13</v>
@@ -3832,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="U4" s="69"/>
       <c r="V4" s="75">
@@ -3845,7 +3820,7 @@
         <v>2</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z4" s="78">
         <v>85236672668</v>
@@ -3857,48 +3832,48 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>726</v>
+        <v>676</v>
       </c>
       <c r="C5" s="86">
         <v>42370</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="37" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="L5" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M5" s="42"/>
       <c r="N5" s="48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O5" s="63">
         <v>10</v>
       </c>
       <c r="P5" s="65" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R5" s="67" t="s">
         <v>13</v>
@@ -3907,7 +3882,7 @@
         <v>2</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>726</v>
+        <v>676</v>
       </c>
       <c r="U5" s="69"/>
       <c r="V5" s="75">
@@ -3920,7 +3895,7 @@
         <v>2</v>
       </c>
       <c r="Y5" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z5" s="78">
         <v>85236672668</v>
@@ -3932,48 +3907,48 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="C6" s="86">
         <v>42370</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="37" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="L6" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M6" s="42"/>
       <c r="N6" s="48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O6" s="63">
         <v>10</v>
       </c>
       <c r="P6" s="65" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R6" s="67" t="s">
         <v>13</v>
@@ -3982,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="U6" s="69"/>
       <c r="V6" s="75">
@@ -3995,7 +3970,7 @@
         <v>2</v>
       </c>
       <c r="Y6" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z6" s="78">
         <v>85236672668</v>
@@ -4007,48 +3982,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>728</v>
+        <v>678</v>
       </c>
       <c r="C7" s="86">
         <v>42370</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="37" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="L7" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M7" s="42"/>
       <c r="N7" s="48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O7" s="63">
         <v>10</v>
       </c>
       <c r="P7" s="65" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R7" s="67" t="s">
         <v>13</v>
@@ -4057,7 +4032,7 @@
         <v>2</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>728</v>
+        <v>678</v>
       </c>
       <c r="U7" s="69"/>
       <c r="V7" s="75">
@@ -4070,7 +4045,7 @@
         <v>2</v>
       </c>
       <c r="Y7" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z7" s="78">
         <v>85236672668</v>
@@ -4082,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="87">
         <v>42667</v>
@@ -4094,13 +4069,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I8" s="24" t="s">
         <v>3</v>
@@ -4110,10 +4085,10 @@
         <v>8</v>
       </c>
       <c r="L8" s="81" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="M8" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N8" s="47" t="s">
         <v>12</v>
@@ -4122,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="P8" s="65" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="66" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="R8" s="68" t="s">
         <v>13</v>
@@ -4149,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z8" s="78">
         <v>85236672668</v>
@@ -4161,7 +4136,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="87">
         <v>42707</v>
@@ -4176,10 +4151,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>15</v>
@@ -4193,13 +4168,13 @@
       </c>
       <c r="M9" s="42"/>
       <c r="N9" s="48" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O9" s="63">
         <v>8</v>
       </c>
       <c r="P9" s="65" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="Q9" s="66" t="s">
         <v>19</v>
@@ -4226,7 +4201,7 @@
         <v>4</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z9" s="78">
         <v>85236672668</v>
@@ -4238,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="87">
         <v>42707</v>
@@ -4253,10 +4228,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>21</v>
@@ -4266,17 +4241,17 @@
         <v>22</v>
       </c>
       <c r="L10" s="65" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="M10" s="42"/>
       <c r="N10" s="48" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="O10" s="63">
         <v>8</v>
       </c>
       <c r="P10" s="65" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="Q10" s="66" t="s">
         <v>19</v>
@@ -4303,7 +4278,7 @@
         <v>4</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z10" s="78">
         <v>85236672668</v>
@@ -4315,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="87">
         <v>42707</v>
@@ -4327,13 +4302,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>24</v>
@@ -4353,10 +4328,10 @@
         <v>33</v>
       </c>
       <c r="P11" s="65" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="66" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="R11" s="68" t="s">
         <v>13</v>
@@ -4380,7 +4355,7 @@
         <v>4</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z11" s="78">
         <v>85236672668</v>
@@ -4392,7 +4367,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="87">
         <v>42709</v>
@@ -4407,25 +4382,25 @@
         <v>31</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L12" s="65" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M12" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="48" t="s">
         <v>33</v>
@@ -4434,7 +4409,7 @@
         <v>117</v>
       </c>
       <c r="P12" s="65" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="Q12" s="66" t="s">
         <v>34</v>
@@ -4461,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z12" s="78">
         <v>85236672668</v>
@@ -4473,7 +4448,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="87">
         <v>42709</v>
@@ -4488,32 +4463,32 @@
         <v>31</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>35</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K13" s="45" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="L13" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M13" s="42"/>
       <c r="N13" s="48" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="O13" s="63">
         <v>60</v>
       </c>
       <c r="P13" s="65" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="66" t="s">
         <v>34</v>
@@ -4540,7 +4515,7 @@
         <v>4</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z13" s="78">
         <v>85236672668</v>
@@ -4552,7 +4527,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="87">
         <v>42709</v>
@@ -4564,13 +4539,13 @@
         <v>6</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>37</v>
@@ -4590,10 +4565,10 @@
         <v>1</v>
       </c>
       <c r="P14" s="65" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="66" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="R14" s="68" t="s">
         <v>13</v>
@@ -4617,7 +4592,7 @@
         <v>4</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z14" s="78">
         <v>85236672668</v>
@@ -4629,7 +4604,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C15" s="87">
         <v>42710</v>
@@ -4644,25 +4619,25 @@
         <v>45</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" s="37" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L15" s="65" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M15" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N15" s="48" t="s">
         <v>47</v>
@@ -4671,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="65" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="Q15" s="66" t="s">
         <v>49</v>
@@ -4696,7 +4671,7 @@
       </c>
       <c r="X15" s="13"/>
       <c r="Y15" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z15" s="78">
         <v>85236672668</v>
@@ -4708,7 +4683,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C16" s="87">
         <v>42710</v>
@@ -4723,10 +4698,10 @@
         <v>45</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>50</v>
@@ -4771,7 +4746,7 @@
       </c>
       <c r="X16" s="13"/>
       <c r="Y16" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z16" s="78">
         <v>85236672668</v>
@@ -4783,7 +4758,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="87">
         <v>42711</v>
@@ -4798,25 +4773,25 @@
         <v>58</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="L17" s="65" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N17" s="48" t="s">
         <v>60</v>
@@ -4825,7 +4800,7 @@
         <v>9</v>
       </c>
       <c r="P17" s="65" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="66" t="s">
         <v>61</v>
@@ -4850,7 +4825,7 @@
       </c>
       <c r="X17" s="13"/>
       <c r="Y17" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z17" s="78">
         <v>85236672668</v>
@@ -4862,7 +4837,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="87">
         <v>42711</v>
@@ -4877,25 +4852,25 @@
         <v>58</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="L18" s="65" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="N18" s="48" t="s">
         <v>63</v>
@@ -4904,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="65" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="66" t="s">
         <v>61</v>
@@ -4929,7 +4904,7 @@
       </c>
       <c r="X18" s="13"/>
       <c r="Y18" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z18" s="78">
         <v>85236672668</v>
@@ -4941,7 +4916,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="87">
         <v>42711</v>
@@ -4956,10 +4931,10 @@
         <v>58</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>64</v>
@@ -4976,10 +4951,10 @@
         <v>67</v>
       </c>
       <c r="O19" s="63" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="P19" s="65" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="66" t="s">
         <v>61</v>
@@ -5004,7 +4979,7 @@
       </c>
       <c r="X19" s="13"/>
       <c r="Y19" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z19" s="78">
         <v>85236672668</v>
@@ -5016,7 +4991,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="87">
         <v>42712</v>
@@ -5028,26 +5003,26 @@
         <v>44</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="14" t="s">
         <v>69</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L20" s="65" t="s">
-        <v>717</v>
+        <v>668</v>
       </c>
       <c r="M20" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N20" s="48" t="s">
         <v>71</v>
@@ -5079,7 +5054,7 @@
       </c>
       <c r="X20" s="13"/>
       <c r="Y20" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z20" s="78">
         <v>85236672668</v>
@@ -5091,7 +5066,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="87">
         <v>42712</v>
@@ -5103,33 +5078,33 @@
         <v>44</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>74</v>
       </c>
       <c r="J21" s="17"/>
       <c r="K21" s="44" t="s">
-        <v>75</v>
+        <v>737</v>
       </c>
       <c r="L21" s="82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M21" s="42"/>
       <c r="N21" s="84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O21" s="63">
         <v>10</v>
       </c>
       <c r="P21" s="65" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="Q21" s="66" t="s">
         <v>72</v>
@@ -5141,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U21" s="73" t="s">
         <v>10</v>
@@ -5154,7 +5129,7 @@
       </c>
       <c r="X21" s="13"/>
       <c r="Y21" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z21" s="78">
         <v>85236672668</v>
@@ -5166,52 +5141,52 @@
         <v>21</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="87">
         <v>42712</v>
       </c>
       <c r="D22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="F22" s="17" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="L22" s="82" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="M22" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N22" s="84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" s="63">
         <v>69</v>
       </c>
       <c r="P22" s="65" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="66" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="R22" s="68" t="s">
         <v>48</v>
@@ -5220,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="T22" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U22" s="68" t="s">
         <v>10</v>
@@ -5233,7 +5208,7 @@
       </c>
       <c r="X22" s="13"/>
       <c r="Y22" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z22" s="78">
         <v>85236672668</v>
@@ -5245,7 +5220,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C23" s="87">
         <v>42713</v>
@@ -5257,16 +5232,16 @@
         <v>44</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="44" t="s">
@@ -5277,16 +5252,16 @@
       </c>
       <c r="M23" s="42"/>
       <c r="N23" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O23" s="63">
         <v>633</v>
       </c>
       <c r="P23" s="65" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R23" s="68" t="s">
         <v>48</v>
@@ -5295,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23" s="73" t="s">
         <v>10</v>
@@ -5308,7 +5283,7 @@
       </c>
       <c r="X23" s="13"/>
       <c r="Y23" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z23" s="78">
         <v>85236672668</v>
@@ -5320,7 +5295,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="87">
         <v>42713</v>
@@ -5332,40 +5307,40 @@
         <v>44</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="K24" s="37" t="s">
-        <v>93</v>
-      </c>
       <c r="L24" s="65" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="M24" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N24" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O24" s="63">
         <v>12</v>
       </c>
       <c r="P24" s="65" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R24" s="68" t="s">
         <v>48</v>
@@ -5374,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U24" s="68" t="s">
         <v>10</v>
@@ -5387,7 +5362,7 @@
       </c>
       <c r="X24" s="13"/>
       <c r="Y24" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z24" s="78">
         <v>85236672668</v>
@@ -5399,48 +5374,48 @@
         <v>24</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="87">
         <v>42716</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L25" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M25" s="42"/>
       <c r="N25" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O25" s="63">
         <v>6</v>
       </c>
       <c r="P25" s="65" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R25" s="68" t="s">
         <v>48</v>
@@ -5449,7 +5424,7 @@
         <v>2</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U25" s="68" t="s">
         <v>53</v>
@@ -5462,7 +5437,7 @@
       </c>
       <c r="X25" s="13"/>
       <c r="Y25" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z25" s="78">
         <v>85236672668</v>
@@ -5474,48 +5449,48 @@
         <v>25</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="87">
         <v>42716</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="H26" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="17"/>
       <c r="K26" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L26" s="82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M26" s="42"/>
       <c r="N26" s="84" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="O26" s="63">
         <v>1</v>
       </c>
       <c r="P26" s="65" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="66" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="R26" s="68" t="s">
         <v>48</v>
@@ -5524,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="T26" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U26" s="68" t="s">
         <v>10</v>
@@ -5537,7 +5512,7 @@
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z26" s="78">
         <v>85236672668</v>
@@ -5549,7 +5524,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="87">
         <v>42717</v>
@@ -5558,48 +5533,48 @@
         <v>5</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="17"/>
       <c r="K27" s="45" t="s">
-        <v>692</v>
+        <v>651</v>
       </c>
       <c r="L27" s="65" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="M27" s="42"/>
       <c r="N27" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O27" s="63">
         <v>38</v>
       </c>
       <c r="P27" s="65" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="Q27" s="66" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="R27" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S27" s="68" t="s">
         <v>4</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U27" s="73" t="s">
         <v>53</v>
@@ -5612,7 +5587,7 @@
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z27" s="78">
         <v>85236672668</v>
@@ -5624,7 +5599,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C28" s="87">
         <v>42717</v>
@@ -5633,48 +5608,48 @@
         <v>5</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>759</v>
+        <v>709</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="44" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L28" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M28" s="42"/>
       <c r="N28" s="48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O28" s="63">
         <v>2</v>
       </c>
       <c r="P28" s="65" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="66" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="R28" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S28" s="68" t="s">
         <v>2</v>
       </c>
       <c r="T28" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U28" s="73" t="s">
         <v>10</v>
@@ -5687,7 +5662,7 @@
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z28" s="78">
         <v>85236672668</v>
@@ -5699,7 +5674,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C29" s="87">
         <v>42717</v>
@@ -5708,48 +5683,48 @@
         <v>5</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L29" s="65" t="s">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="M29" s="42"/>
       <c r="N29" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O29" s="63">
         <v>233</v>
       </c>
       <c r="P29" s="65" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="66" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="R29" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S29" s="68" t="s">
         <v>2</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U29" s="73" t="s">
         <v>53</v>
@@ -5762,7 +5737,7 @@
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z29" s="78">
         <v>85236672668</v>
@@ -5774,7 +5749,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="87">
         <v>42718</v>
@@ -5783,43 +5758,43 @@
         <v>43</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K30" s="37" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="L30" s="65" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N30" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O30" s="63">
         <v>60</v>
       </c>
       <c r="P30" s="65" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="Q30" s="66" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="R30" s="68" t="s">
         <v>13</v>
@@ -5828,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="T30" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U30" s="68" t="s">
         <v>10</v>
@@ -5841,7 +5816,7 @@
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z30" s="78">
         <v>85236672668</v>
@@ -5853,7 +5828,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="87">
         <v>42718</v>
@@ -5862,36 +5837,36 @@
         <v>43</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>7</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H31" s="21"/>
       <c r="I31" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K31" s="37" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="L31" s="65" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M31" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N31" s="48" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="O31" s="63"/>
       <c r="P31" s="65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="66" t="s">
         <v>14</v>
@@ -5903,7 +5878,7 @@
         <v>2</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U31" s="68" t="s">
         <v>53</v>
@@ -5916,7 +5891,7 @@
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z31" s="78">
         <v>85236672668</v>
@@ -5928,44 +5903,44 @@
         <v>31</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C32" s="87">
         <v>42718</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="65"/>
       <c r="M32" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N32" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O32" s="63"/>
       <c r="P32" s="65" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="Q32" s="66" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="R32" s="68" t="s">
         <v>13</v>
@@ -5974,7 +5949,7 @@
         <v>2</v>
       </c>
       <c r="T32" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U32" s="68" t="s">
         <v>10</v>
@@ -5987,7 +5962,7 @@
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z32" s="78">
         <v>85236672668</v>
@@ -5999,48 +5974,48 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="C33" s="87">
         <v>42753</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K33" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="L33" s="65" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="M33" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N33" s="48"/>
       <c r="O33" s="63" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P33" s="65" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q33" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R33" s="68" t="s">
         <v>13</v>
@@ -6049,7 +6024,7 @@
         <v>2</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="U33" s="68"/>
       <c r="V33" s="76">
@@ -6060,7 +6035,7 @@
       </c>
       <c r="X33" s="13"/>
       <c r="Y33" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z33" s="78">
         <v>85236672668</v>
@@ -6072,52 +6047,52 @@
         <v>33</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="C34" s="87">
         <v>42753</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I34" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="L34" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="M34" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="N34" s="48" t="s">
         <v>213</v>
-      </c>
-      <c r="J34" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K34" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="L34" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="M34" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="N34" s="48" t="s">
-        <v>219</v>
       </c>
       <c r="O34" s="63">
         <v>106</v>
       </c>
       <c r="P34" s="65" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="Q34" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R34" s="68" t="s">
         <v>13</v>
@@ -6126,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="T34" s="21" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="U34" s="68"/>
       <c r="V34" s="76">
@@ -6137,7 +6112,7 @@
       </c>
       <c r="X34" s="13"/>
       <c r="Y34" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z34" s="78">
         <v>85236672668</v>
@@ -6149,61 +6124,61 @@
         <v>34</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C35" s="87">
         <v>42753</v>
       </c>
       <c r="D35" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="F35" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="H35" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="I35" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="J35" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="K35" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K35" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="L35" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M35" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N35" s="48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O35" s="63">
         <v>15</v>
       </c>
       <c r="P35" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q35" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R35" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S35" s="68" t="s">
         <v>2</v>
       </c>
       <c r="T35" s="21" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="U35" s="68"/>
       <c r="V35" s="76">
@@ -6214,7 +6189,7 @@
       </c>
       <c r="X35" s="13"/>
       <c r="Y35" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z35" s="78">
         <v>85236672668</v>
@@ -6226,58 +6201,58 @@
         <v>35</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="C36" s="87">
         <v>42754</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="27" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="L36" s="65" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="M36" s="42"/>
       <c r="N36" s="48" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="O36" s="63">
         <v>12</v>
       </c>
       <c r="P36" s="65" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="Q36" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R36" s="68" t="s">
         <v>13</v>
       </c>
       <c r="S36" s="68"/>
       <c r="T36" s="21" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="U36" s="68" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="V36" s="76">
         <v>36</v>
@@ -6285,7 +6260,7 @@
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z36" s="78">
         <v>85236672668</v>
@@ -6297,58 +6272,58 @@
         <v>36</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="C37" s="87">
         <v>42754</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="37" t="s">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="L37" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M37" s="42"/>
       <c r="N37" s="48" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O37" s="63">
         <v>10</v>
       </c>
       <c r="P37" s="65" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="Q37" s="66" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="R37" s="67" t="s">
         <v>13</v>
       </c>
       <c r="S37" s="68"/>
       <c r="T37" s="21" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="U37" s="68" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="V37" s="76">
         <v>18</v>
@@ -6356,7 +6331,7 @@
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z37" s="78">
         <v>85236672668</v>
@@ -6368,48 +6343,48 @@
         <v>37</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C38" s="87">
         <v>42754</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="37" t="s">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="L38" s="65" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="M38" s="42"/>
       <c r="N38" s="48" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="O38" s="63">
         <v>18</v>
       </c>
       <c r="P38" s="65" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="Q38" s="66" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="R38" s="68" t="s">
         <v>48</v>
@@ -6418,10 +6393,10 @@
         <v>4</v>
       </c>
       <c r="T38" s="21" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="U38" s="68" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="V38" s="76">
         <v>36</v>
@@ -6429,7 +6404,7 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z38" s="78">
         <v>85236672668</v>
@@ -6441,7 +6416,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C39" s="87">
         <v>42755</v>
@@ -6456,34 +6431,34 @@
         <v>58</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="H39" s="21" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K39" s="44" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="L39" s="65" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="M39" s="42" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="N39" s="48" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="O39" s="63" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="P39" s="65" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="Q39" s="66" t="s">
         <v>61</v>
@@ -6493,10 +6468,10 @@
       </c>
       <c r="S39" s="68"/>
       <c r="T39" s="21" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="U39" s="68" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="V39" s="76">
         <v>36</v>
@@ -6504,7 +6479,7 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z39" s="78">
         <v>85236672668</v>
@@ -6516,58 +6491,58 @@
         <v>39</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C40" s="87">
         <v>42756</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="H40" s="21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I40" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="37" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="L40" s="65" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="M40" s="42"/>
       <c r="N40" s="48" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="O40" s="63">
         <v>6</v>
       </c>
       <c r="P40" s="65" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="Q40" s="66" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="R40" s="68" t="s">
         <v>13</v>
       </c>
       <c r="S40" s="68"/>
       <c r="T40" s="21" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="U40" s="68" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="V40" s="76">
         <v>36</v>
@@ -6575,7 +6550,7 @@
       <c r="W40" s="25"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z40" s="78">
         <v>85236672668</v>
@@ -6587,13 +6562,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="C41" s="87">
         <v>42756</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>44</v>
@@ -6602,34 +6577,34 @@
         <v>45</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K41" s="37" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="L41" s="65" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>722</v>
+        <v>672</v>
       </c>
       <c r="N41" s="48" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="O41" s="63">
         <v>33</v>
       </c>
       <c r="P41" s="65" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="Q41" s="66" t="s">
         <v>49</v>
@@ -6642,7 +6617,7 @@
       </c>
       <c r="T41" s="21"/>
       <c r="U41" s="68" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="V41" s="76">
         <v>36</v>
@@ -6650,7 +6625,7 @@
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z41" s="78">
         <v>85236672668</v>
@@ -6662,62 +6637,62 @@
         <v>41</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C42" s="87">
         <v>42756</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K42" s="37" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="L42" s="65" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="M42" s="42" t="s">
         <v>68</v>
       </c>
       <c r="N42" s="48" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="O42" s="63">
         <v>2</v>
       </c>
       <c r="P42" s="65" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="Q42" s="66" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="R42" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S42" s="68"/>
       <c r="T42" s="21" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="U42" s="73" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="V42" s="76">
         <v>36</v>
@@ -6727,7 +6702,7 @@
       </c>
       <c r="X42" s="13"/>
       <c r="Y42" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z42" s="78">
         <v>85236672668</v>
@@ -6739,66 +6714,66 @@
         <v>42</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C43" s="87">
         <v>42758</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="21"/>
       <c r="I43" s="17" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="K43" s="37" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="L43" s="65" t="s">
-        <v>707</v>
+        <v>662</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="N43" s="48" t="s">
-        <v>706</v>
+        <v>661</v>
       </c>
       <c r="O43" s="63"/>
       <c r="P43" s="65"/>
       <c r="Q43" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R43" s="67" t="s">
         <v>13</v>
       </c>
       <c r="S43" s="68" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T43" s="21" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="U43" s="73" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V43" s="76">
         <v>18</v>
       </c>
       <c r="W43" s="25" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="X43" s="13"/>
       <c r="Y43" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z43" s="78">
         <v>85236672668</v>
@@ -6810,52 +6785,52 @@
         <v>43</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C44" s="87">
         <v>42758</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K44" s="37" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="L44" s="65" t="s">
-        <v>708</v>
+        <v>663</v>
       </c>
       <c r="M44" s="42" t="s">
         <v>68</v>
       </c>
       <c r="N44" s="48" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="O44" s="63">
         <v>8</v>
       </c>
       <c r="P44" s="65" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="Q44" s="66" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="R44" s="67" t="s">
         <v>13</v>
@@ -6864,7 +6839,7 @@
         <v>4</v>
       </c>
       <c r="T44" s="21" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="U44" s="68" t="s">
         <v>10</v>
@@ -6875,7 +6850,7 @@
       </c>
       <c r="X44" s="13"/>
       <c r="Y44" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z44" s="78">
         <v>85236672668</v>
@@ -6887,13 +6862,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C45" s="87">
         <v>42758</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>44</v>
@@ -6902,34 +6877,34 @@
         <v>45</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K45" s="37" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
       <c r="L45" s="65" t="s">
-        <v>709</v>
+        <v>664</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="N45" s="48" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="O45" s="63">
         <v>38</v>
       </c>
       <c r="P45" s="65" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="Q45" s="66" t="s">
         <v>49</v>
@@ -6939,10 +6914,10 @@
       </c>
       <c r="S45" s="68"/>
       <c r="T45" s="21" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="U45" s="73" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V45" s="76">
         <v>36</v>
@@ -6952,7 +6927,7 @@
       </c>
       <c r="X45" s="13"/>
       <c r="Y45" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z45" s="78">
         <v>85236672668</v>
@@ -6964,13 +6939,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C46" s="87">
         <v>42758</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>44</v>
@@ -6979,28 +6954,28 @@
         <v>45</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I46" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K46" s="37" t="s">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="L46" s="65" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="M46" s="42" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="N46" s="48" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="O46" s="63">
         <v>100</v>
@@ -7018,10 +6993,10 @@
         <v>4</v>
       </c>
       <c r="T46" s="21" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="U46" s="68" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V46" s="76"/>
       <c r="W46" s="13">
@@ -7029,7 +7004,7 @@
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z46" s="78">
         <v>85236672668</v>
@@ -7041,58 +7016,58 @@
         <v>46</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C47" s="87">
         <v>42759</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="I47" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="28" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="L47" s="65" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="M47" s="42"/>
       <c r="N47" s="48" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="O47" s="63">
         <v>223</v>
       </c>
       <c r="P47" s="65" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="Q47" s="66" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="R47" s="68" t="s">
         <v>13</v>
       </c>
       <c r="S47" s="68"/>
       <c r="T47" s="21" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="U47" s="68" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V47" s="76">
         <v>36</v>
@@ -7101,10 +7076,10 @@
         <v>24</v>
       </c>
       <c r="X47" s="13" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="Y47" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z47" s="78">
         <v>85236672668</v>
@@ -7116,7 +7091,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C48" s="87">
         <v>42759</v>
@@ -7128,58 +7103,58 @@
         <v>44</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="H48" s="21">
         <v>638</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J48" s="17"/>
       <c r="K48" s="37" t="s">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="L48" s="65" t="s">
-        <v>715</v>
+        <v>667</v>
       </c>
       <c r="M48" s="42"/>
       <c r="N48" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="63">
         <v>638</v>
       </c>
       <c r="P48" s="65" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="66" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="R48" s="67" t="s">
         <v>48</v>
       </c>
       <c r="S48" s="68" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T48" s="21" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="U48" s="73" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="V48" s="76">
         <v>72</v>
       </c>
       <c r="W48" s="13"/>
       <c r="X48" s="13" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="Y48" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z48" s="78">
         <v>85236672668</v>
@@ -7191,72 +7166,72 @@
         <v>48</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C49" s="87">
         <v>42760</v>
       </c>
       <c r="D49" s="42" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>693</v>
+        <v>762</v>
       </c>
       <c r="L49" s="65" t="s">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="M49" s="42" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="N49" s="48" t="s">
-        <v>552</v>
+        <v>740</v>
       </c>
       <c r="O49" s="63" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="P49" s="65" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="Q49" s="66" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="R49" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S49" s="68"/>
       <c r="T49" s="21" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="U49" s="68" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V49" s="76">
         <v>18</v>
       </c>
       <c r="W49" s="13"/>
       <c r="X49" s="13" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="Y49" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z49" s="78">
         <v>85236672668</v>
@@ -7268,64 +7243,64 @@
         <v>49</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="C50" s="87">
         <v>42760</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K50" s="46" t="s">
-        <v>718</v>
+        <v>669</v>
       </c>
       <c r="L50" s="65" t="s">
-        <v>719</v>
+        <v>764</v>
       </c>
       <c r="M50" s="42" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="N50" s="48" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="O50" s="63" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="P50" s="65" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="Q50" s="66" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="R50" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S50" s="68" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="T50" s="21" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="U50" s="68" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="V50" s="76">
         <v>36</v>
@@ -7334,10 +7309,10 @@
         <v>24</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="Y50" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z50" s="78">
         <v>85236672668</v>
@@ -7349,59 +7324,59 @@
         <v>50</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C51" s="87">
         <v>42776</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K51" s="37" t="s">
-        <v>474</v>
+        <v>731</v>
       </c>
       <c r="L51" s="65" t="s">
-        <v>565</v>
+        <v>741</v>
       </c>
       <c r="M51" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N51" s="48" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="O51" s="63" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="P51" s="65" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="Q51" s="66" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="R51" s="68" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="S51" s="68"/>
       <c r="T51" s="21" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="U51" s="68"/>
       <c r="V51" s="76">
@@ -7410,7 +7385,7 @@
       <c r="W51" s="13"/>
       <c r="X51" s="13"/>
       <c r="Y51" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z51" s="78">
         <v>85236672668</v>
@@ -7422,59 +7397,59 @@
         <v>51</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="C52" s="87">
         <v>42776</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>760</v>
+        <v>710</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>475</v>
+        <v>732</v>
       </c>
       <c r="L52" s="65" t="s">
-        <v>566</v>
+        <v>742</v>
       </c>
       <c r="M52" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N52" s="48" t="s">
-        <v>580</v>
+        <v>743</v>
       </c>
       <c r="O52" s="63" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="P52" s="65" t="s">
-        <v>582</v>
+        <v>547</v>
       </c>
       <c r="Q52" s="66" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
       <c r="R52" s="68" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="S52" s="68"/>
       <c r="T52" s="21" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="U52" s="68"/>
       <c r="V52" s="76">
@@ -7483,7 +7458,7 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z52" s="78">
         <v>85236672668</v>
@@ -7495,7 +7470,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="C53" s="87">
         <v>42781</v>
@@ -7507,48 +7482,48 @@
         <v>44</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H53" s="21"/>
       <c r="I53" s="17" t="s">
-        <v>585</v>
+        <v>550</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K53" s="37" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="L53" s="65" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="M53" s="42"/>
       <c r="N53" s="48" t="s">
-        <v>680</v>
+        <v>763</v>
       </c>
       <c r="O53" s="63"/>
       <c r="P53" s="65" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="Q53" s="66" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="R53" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S53" s="68"/>
       <c r="T53" s="21" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="U53" s="73"/>
       <c r="V53" s="76"/>
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z53" s="78">
         <v>85236672668</v>
@@ -7560,7 +7535,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>586</v>
+        <v>551</v>
       </c>
       <c r="C54" s="87">
         <v>42781</v>
@@ -7572,47 +7547,47 @@
         <v>44</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>588</v>
+        <v>553</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>589</v>
+        <v>554</v>
       </c>
       <c r="I54" s="17" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="J54" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K54" s="44" t="s">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="L54" s="65" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="M54" s="42" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="N54" s="48" t="s">
-        <v>591</v>
+        <v>744</v>
       </c>
       <c r="O54" s="63" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="P54" s="65" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="Q54" s="66" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="R54" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S54" s="68"/>
       <c r="T54" s="21" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="U54" s="73"/>
       <c r="V54" s="76"/>
@@ -7621,7 +7596,7 @@
       </c>
       <c r="X54" s="13"/>
       <c r="Y54" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z54" s="78">
         <v>85236672668</v>
@@ -7633,7 +7608,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="C55" s="87">
         <v>42781</v>
@@ -7645,47 +7620,47 @@
         <v>44</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I55" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K55" s="44" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="L55" s="65" t="s">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="M55" s="42" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="N55" s="48" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="O55" s="63" t="s">
-        <v>679</v>
+        <v>642</v>
       </c>
       <c r="P55" s="65" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="Q55" s="66" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="R55" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S55" s="68"/>
       <c r="T55" s="21" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="U55" s="73"/>
       <c r="V55" s="76"/>
@@ -7694,7 +7669,7 @@
       </c>
       <c r="X55" s="13"/>
       <c r="Y55" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z55" s="78">
         <v>85236672668</v>
@@ -7706,59 +7681,59 @@
         <v>55</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C56" s="87">
         <v>42793</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="H56" s="21" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="I56" s="17" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K56" s="37" t="s">
-        <v>563</v>
+        <v>733</v>
       </c>
       <c r="L56" s="65" t="s">
+        <v>745</v>
+      </c>
+      <c r="M56" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="N56" s="48" t="s">
+        <v>746</v>
+      </c>
+      <c r="O56" s="63" t="s">
+        <v>565</v>
+      </c>
+      <c r="P56" s="65" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q56" s="66" t="s">
         <v>567</v>
       </c>
-      <c r="M56" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="N56" s="48" t="s">
-        <v>601</v>
-      </c>
-      <c r="O56" s="63" t="s">
-        <v>602</v>
-      </c>
-      <c r="P56" s="65" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q56" s="66" t="s">
-        <v>604</v>
-      </c>
       <c r="R56" s="68" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="S56" s="68"/>
       <c r="T56" s="21" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="U56" s="73"/>
       <c r="V56" s="76">
@@ -7767,7 +7742,7 @@
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z56" s="78">
         <v>85236672668</v>
@@ -7779,55 +7754,55 @@
         <v>56</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="I57" s="17"/>
       <c r="J57" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K57" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K57" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="L57" s="65" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="M57" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N57" s="48"/>
       <c r="O57" s="63" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="P57" s="65" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="Q57" s="66" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="R57" s="68" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="S57" s="68"/>
       <c r="T57" s="21" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="U57" s="73"/>
       <c r="V57" s="76">
@@ -7836,7 +7811,7 @@
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z57" s="78">
         <v>85236672668</v>
@@ -7848,59 +7823,59 @@
         <v>57</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="C58" s="87" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="H58" s="21" t="s">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K58" s="37" t="s">
-        <v>455</v>
+        <v>734</v>
       </c>
       <c r="L58" s="65" t="s">
-        <v>568</v>
+        <v>747</v>
       </c>
       <c r="M58" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N58" s="48" t="s">
-        <v>611</v>
+        <v>574</v>
       </c>
       <c r="O58" s="63" t="s">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="P58" s="65" t="s">
-        <v>613</v>
+        <v>576</v>
       </c>
       <c r="Q58" s="66" t="s">
-        <v>614</v>
+        <v>577</v>
       </c>
       <c r="R58" s="68" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="S58" s="68"/>
       <c r="T58" s="21" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="U58" s="73"/>
       <c r="V58" s="76">
@@ -7909,7 +7884,7 @@
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z58" s="78">
         <v>85236672668</v>
@@ -7921,59 +7896,59 @@
         <v>58</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C59" s="87">
         <v>42794</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>615</v>
+        <v>578</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>616</v>
+        <v>579</v>
       </c>
       <c r="H59" s="21" t="s">
-        <v>609</v>
+        <v>572</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K59" s="37" t="s">
-        <v>476</v>
+        <v>735</v>
       </c>
       <c r="L59" s="65" t="s">
-        <v>569</v>
+        <v>748</v>
       </c>
       <c r="M59" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N59" s="48" t="s">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="O59" s="63" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="P59" s="65" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="Q59" s="66" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="R59" s="68" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="S59" s="68"/>
       <c r="T59" s="21" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="U59" s="73"/>
       <c r="V59" s="76">
@@ -7982,7 +7957,7 @@
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z59" s="78">
         <v>85236672668</v>
@@ -7994,13 +7969,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C60" s="87">
         <v>42794</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>44</v>
@@ -8009,44 +7984,44 @@
         <v>45</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="H60" s="21" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K60" s="37" t="s">
-        <v>477</v>
+        <v>736</v>
       </c>
       <c r="L60" s="65" t="s">
-        <v>570</v>
+        <v>749</v>
       </c>
       <c r="M60" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N60" s="48" t="s">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="O60" s="63" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="P60" s="65" t="s">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="Q60" s="66" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="R60" s="68" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="S60" s="68"/>
       <c r="T60" s="21" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="U60" s="73"/>
       <c r="V60" s="76">
@@ -8055,7 +8030,7 @@
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z60" s="78">
         <v>85236672668</v>
@@ -8067,59 +8042,59 @@
         <v>60</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C61" s="87">
         <v>42793</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="H61" s="21" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="I61" s="17" t="s">
-        <v>626</v>
+        <v>589</v>
       </c>
       <c r="J61" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K61" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="L61" s="65" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="M61" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N61" s="48" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="O61" s="63" t="s">
-        <v>628</v>
+        <v>591</v>
       </c>
       <c r="P61" s="65" t="s">
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="Q61" s="66" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="R61" s="68" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="S61" s="68"/>
       <c r="T61" s="21" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="U61" s="73"/>
       <c r="V61" s="76">
@@ -8128,7 +8103,7 @@
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z61" s="78">
         <v>85236672668</v>
@@ -8140,55 +8115,55 @@
         <v>61</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D62" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="F62" s="17" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="H62" s="21" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K62" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="K62" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="L62" s="65" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="M62" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N62" s="48"/>
       <c r="O62" s="63" t="s">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="P62" s="65" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="Q62" s="66" t="s">
-        <v>633</v>
+        <v>596</v>
       </c>
       <c r="R62" s="68" t="s">
-        <v>634</v>
+        <v>597</v>
       </c>
       <c r="S62" s="68"/>
       <c r="T62" s="21" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="U62" s="73"/>
       <c r="V62" s="76">
@@ -8197,7 +8172,7 @@
       <c r="W62" s="13"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z62" s="78">
         <v>85236672668</v>
@@ -8209,13 +8184,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="C63" s="87">
         <v>42794</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63" s="22" t="s">
         <v>44</v>
@@ -8224,44 +8199,44 @@
         <v>58</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>635</v>
+        <v>598</v>
       </c>
       <c r="H63" s="21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K63" s="37" t="s">
-        <v>466</v>
+        <v>750</v>
       </c>
       <c r="L63" s="65" t="s">
+        <v>717</v>
+      </c>
+      <c r="M63" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="N63" s="48" t="s">
+        <v>599</v>
+      </c>
+      <c r="O63" s="63" t="s">
+        <v>600</v>
+      </c>
+      <c r="P63" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q63" s="66" t="s">
+        <v>513</v>
+      </c>
+      <c r="R63" s="68" t="s">
         <v>571</v>
-      </c>
-      <c r="M63" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="N63" s="48" t="s">
-        <v>636</v>
-      </c>
-      <c r="O63" s="63" t="s">
-        <v>637</v>
-      </c>
-      <c r="P63" s="65" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q63" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="R63" s="68" t="s">
-        <v>608</v>
       </c>
       <c r="S63" s="68"/>
       <c r="T63" s="21" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="U63" s="73"/>
       <c r="V63" s="76">
@@ -8270,7 +8245,7 @@
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z63" s="78">
         <v>85236672668</v>
@@ -8282,55 +8257,55 @@
         <v>63</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="C64" s="87">
         <v>42793</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="H64" s="21" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="I64" s="17" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="K64" s="37" t="s">
-        <v>465</v>
+        <v>751</v>
       </c>
       <c r="L64" s="65" t="s">
-        <v>572</v>
+        <v>718</v>
       </c>
       <c r="M64" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N64" s="48" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="O64" s="63" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
       <c r="P64" s="65" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="Q64" s="66" t="s">
-        <v>643</v>
+        <v>606</v>
       </c>
       <c r="R64" s="68" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="S64" s="68"/>
       <c r="T64" s="21"/>
@@ -8341,7 +8316,7 @@
       <c r="W64" s="13"/>
       <c r="X64" s="13"/>
       <c r="Y64" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z64" s="78">
         <v>85236672668</v>
@@ -8353,13 +8328,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="C65" s="87">
         <v>42795</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E65" s="22" t="s">
         <v>44</v>
@@ -8368,24 +8343,24 @@
         <v>45</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="H65" s="21" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J65" s="17"/>
       <c r="K65" s="37" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="L65" s="65" t="s">
-        <v>721</v>
+        <v>671</v>
       </c>
       <c r="M65" s="42"/>
       <c r="N65" s="48" t="s">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="O65" s="63">
         <v>88</v>
@@ -8401,14 +8376,14 @@
       </c>
       <c r="S65" s="68"/>
       <c r="T65" s="21" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="U65" s="73"/>
       <c r="V65" s="76"/>
       <c r="W65" s="13"/>
       <c r="X65" s="13"/>
       <c r="Y65" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z65" s="78">
         <v>85236672668</v>
@@ -8420,66 +8395,66 @@
         <v>65</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="C66" s="87">
         <v>42795</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>647</v>
+        <v>610</v>
       </c>
       <c r="H66" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>730</v>
+        <v>680</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K66" s="44" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="L66" s="65" t="s">
         <v>68</v>
       </c>
       <c r="M66" s="42" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="N66" s="48" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
       <c r="O66" s="63" t="s">
-        <v>650</v>
+        <v>613</v>
       </c>
       <c r="P66" s="65" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="Q66" s="66" t="s">
-        <v>652</v>
+        <v>615</v>
       </c>
       <c r="R66" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S66" s="68"/>
       <c r="T66" s="21" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="U66" s="68"/>
       <c r="V66" s="76"/>
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z66" s="78">
         <v>85236672668</v>
@@ -8491,32 +8466,32 @@
         <v>66</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>655</v>
+        <v>618</v>
       </c>
       <c r="C67" s="87">
         <v>42795</v>
       </c>
       <c r="D67" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>657</v>
+        <v>620</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>653</v>
+        <v>616</v>
       </c>
       <c r="H67" s="21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>654</v>
+        <v>617</v>
       </c>
       <c r="J67" s="17"/>
       <c r="K67" s="37" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="L67" s="65" t="s">
         <v>1</v>
@@ -8526,7 +8501,7 @@
       <c r="O67" s="63"/>
       <c r="P67" s="65"/>
       <c r="Q67" s="66" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="R67" s="68" t="s">
         <v>48</v>
@@ -8535,14 +8510,14 @@
         <v>4</v>
       </c>
       <c r="T67" s="21" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="U67" s="68"/>
       <c r="V67" s="76"/>
       <c r="W67" s="13"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z67" s="78">
         <v>85236672668</v>
@@ -8554,58 +8529,58 @@
         <v>67</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="C68" s="87">
         <v>42795</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="H68" s="21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="J68" s="17"/>
       <c r="K68" s="37"/>
       <c r="L68" s="65"/>
       <c r="M68" s="42"/>
       <c r="N68" s="48" t="s">
-        <v>662</v>
+        <v>625</v>
       </c>
       <c r="O68" s="63" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="P68" s="65" t="s">
-        <v>664</v>
+        <v>627</v>
       </c>
       <c r="Q68" s="66" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="R68" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S68" s="68"/>
       <c r="T68" s="21" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="U68" s="68"/>
       <c r="V68" s="76"/>
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
       <c r="Y68" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z68" s="78">
         <v>85236672668</v>
@@ -8617,50 +8592,50 @@
         <v>68</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C69" s="87"/>
       <c r="D69" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>665</v>
+        <v>628</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K69" s="37" t="s">
-        <v>222</v>
+        <v>752</v>
       </c>
       <c r="L69" s="65" t="s">
-        <v>309</v>
+        <v>719</v>
       </c>
       <c r="M69" s="42" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="N69" s="48" t="s">
-        <v>244</v>
+        <v>753</v>
       </c>
       <c r="O69" s="63">
         <v>608</v>
       </c>
       <c r="P69" s="65" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Q69" s="66" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="R69" s="68" t="s">
         <v>48</v>
@@ -8678,7 +8653,7 @@
       </c>
       <c r="X69" s="13"/>
       <c r="Y69" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z69" s="78">
         <v>85236672668</v>
@@ -8690,50 +8665,50 @@
         <v>69</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="C70" s="87"/>
       <c r="D70" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H70" s="21" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J70" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K70" s="37" t="s">
-        <v>232</v>
+        <v>754</v>
       </c>
       <c r="L70" s="65" t="s">
-        <v>310</v>
+        <v>720</v>
       </c>
       <c r="M70" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N70" s="48" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="O70" s="63" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P70" s="65" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q70" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R70" s="68" t="s">
         <v>48</v>
@@ -8742,7 +8717,7 @@
         <v>2</v>
       </c>
       <c r="T70" s="21" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="U70" s="68"/>
       <c r="V70" s="76">
@@ -8753,7 +8728,7 @@
       </c>
       <c r="X70" s="13"/>
       <c r="Y70" s="20" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z70" s="78">
         <v>85236672668</v>
@@ -8765,46 +8740,46 @@
         <v>70</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C71" s="87"/>
       <c r="D71" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I71" s="17" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="J71" s="17"/>
       <c r="K71" s="37" t="s">
-        <v>210</v>
+        <v>755</v>
       </c>
       <c r="L71" s="65" t="s">
-        <v>311</v>
+        <v>721</v>
       </c>
       <c r="M71" s="42"/>
       <c r="N71" s="48" t="s">
-        <v>245</v>
+        <v>756</v>
       </c>
       <c r="O71" s="63" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="P71" s="65" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="Q71" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R71" s="68" t="s">
         <v>48</v>
@@ -8813,7 +8788,7 @@
         <v>2</v>
       </c>
       <c r="T71" s="21" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="U71" s="68"/>
       <c r="V71" s="76">
@@ -8824,7 +8799,7 @@
       </c>
       <c r="X71" s="13"/>
       <c r="Y71" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z71" s="78">
         <v>85236672668</v>
@@ -8836,46 +8811,46 @@
         <v>71</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C72" s="87"/>
       <c r="D72" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J72" s="17"/>
       <c r="K72" s="37" t="s">
-        <v>208</v>
+        <v>757</v>
       </c>
       <c r="L72" s="65" t="s">
-        <v>312</v>
+        <v>722</v>
       </c>
       <c r="M72" s="42"/>
       <c r="N72" s="48" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="O72" s="63">
         <v>48</v>
       </c>
       <c r="P72" s="65" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q72" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R72" s="68" t="s">
         <v>48</v>
@@ -8884,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="T72" s="21" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="U72" s="68"/>
       <c r="V72" s="76">
@@ -8895,7 +8870,7 @@
       </c>
       <c r="X72" s="13"/>
       <c r="Y72" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z72" s="78">
         <v>85236672668</v>
@@ -8907,59 +8882,59 @@
         <v>72</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C73" s="87"/>
       <c r="D73" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="F73" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="H73" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K73" s="37" t="s">
+        <v>758</v>
+      </c>
+      <c r="L73" s="65" t="s">
+        <v>723</v>
+      </c>
+      <c r="M73" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="N73" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="O73" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="H73" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="I73" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K73" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="L73" s="65" t="s">
-        <v>313</v>
-      </c>
-      <c r="M73" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="N73" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="O73" s="63" t="s">
-        <v>200</v>
-      </c>
       <c r="P73" s="65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q73" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R73" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S73" s="68" t="s">
         <v>2</v>
       </c>
       <c r="T73" s="21" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="U73" s="68"/>
       <c r="V73" s="76">
@@ -8970,7 +8945,7 @@
       </c>
       <c r="X73" s="13"/>
       <c r="Y73" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z73" s="78">
         <v>85236672668</v>
@@ -8982,53 +8957,53 @@
         <v>73</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C74" s="87"/>
       <c r="D74" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="F74" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="H74" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="K74" s="37" t="s">
+        <v>759</v>
+      </c>
+      <c r="L74" s="65" t="s">
+        <v>724</v>
+      </c>
+      <c r="M74" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="N74" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="O74" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="P74" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="G74" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="J74" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="K74" s="37" t="s">
+      <c r="Q74" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="L74" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="M74" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="N74" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="O74" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="P74" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q74" s="66" t="s">
-        <v>196</v>
-      </c>
       <c r="R74" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S74" s="68" t="s">
         <v>2</v>
@@ -9043,7 +9018,7 @@
       </c>
       <c r="X74" s="13"/>
       <c r="Y74" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z74" s="78">
         <v>85236672668</v>
@@ -9055,53 +9030,53 @@
         <v>74</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C75" s="87"/>
       <c r="D75" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="F75" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="G75" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H75" s="21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I75" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K75" s="37" t="s">
-        <v>206</v>
+        <v>760</v>
       </c>
       <c r="L75" s="65" t="s">
-        <v>315</v>
+        <v>725</v>
       </c>
       <c r="M75" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N75" s="48" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="O75" s="63">
         <v>30</v>
       </c>
       <c r="P75" s="65" t="s">
-        <v>669</v>
+        <v>632</v>
       </c>
       <c r="Q75" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R75" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S75" s="68" t="s">
         <v>2</v>
@@ -9116,7 +9091,7 @@
       </c>
       <c r="X75" s="13"/>
       <c r="Y75" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z75" s="78">
         <v>85236672668</v>
@@ -9128,11 +9103,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>670</v>
+        <v>633</v>
       </c>
       <c r="C76" s="87"/>
       <c r="D76" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>44</v>
@@ -9141,34 +9116,34 @@
         <v>45</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="H76" s="21" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I76" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="K76" s="37" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="L76" s="65" t="s">
-        <v>678</v>
+        <v>641</v>
       </c>
       <c r="M76" s="42" t="s">
         <v>68</v>
       </c>
       <c r="N76" s="48" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="O76" s="63">
         <v>1</v>
       </c>
       <c r="P76" s="65" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="Q76" s="66" t="s">
         <v>49</v>
@@ -9180,14 +9155,14 @@
         <v>4</v>
       </c>
       <c r="T76" s="21" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="U76" s="68"/>
       <c r="V76" s="76"/>
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
       <c r="Y76" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z76" s="78">
         <v>85236672668</v>
@@ -9199,7 +9174,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>671</v>
+        <v>634</v>
       </c>
       <c r="C77" s="87"/>
       <c r="D77" s="42" t="s">
@@ -9209,35 +9184,35 @@
         <v>44</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G77" s="17"/>
       <c r="H77" s="21"/>
       <c r="I77" s="17" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K77" s="37"/>
       <c r="L77" s="65"/>
       <c r="M77" s="42" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="N77" s="48" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O77" s="63"/>
       <c r="P77" s="65"/>
       <c r="Q77" s="66" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="R77" s="68" t="s">
         <v>48</v>
       </c>
       <c r="S77" s="68"/>
       <c r="T77" s="21" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="U77" s="73"/>
       <c r="V77" s="76"/>
@@ -9246,7 +9221,7 @@
       </c>
       <c r="X77" s="13"/>
       <c r="Y77" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z77" s="78">
         <v>85236672668</v>
@@ -9258,42 +9233,42 @@
         <v>77</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C78" s="87"/>
       <c r="D78" s="42" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>673</v>
+        <v>636</v>
       </c>
       <c r="H78" s="21" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="I78" s="17" t="s">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="J78" s="17"/>
       <c r="K78" s="37"/>
       <c r="L78" s="65"/>
       <c r="M78" s="42"/>
       <c r="N78" s="48" t="s">
-        <v>674</v>
+        <v>637</v>
       </c>
       <c r="O78" s="63" t="s">
-        <v>675</v>
+        <v>638</v>
       </c>
       <c r="P78" s="65" t="s">
-        <v>676</v>
+        <v>639</v>
       </c>
       <c r="Q78" s="66" t="s">
-        <v>677</v>
+        <v>640</v>
       </c>
       <c r="R78" s="68" t="s">
         <v>48</v>
@@ -9302,7 +9277,7 @@
         <v>4</v>
       </c>
       <c r="T78" s="21" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="U78" s="73"/>
       <c r="V78" s="76"/>
@@ -9311,7 +9286,7 @@
       </c>
       <c r="X78" s="13"/>
       <c r="Y78" s="23" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="Z78" s="78">
         <v>85236672668</v>
